--- a/mosip_master/xlsx/reason_list.xlsx
+++ b/mosip_master/xlsx/reason_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wuriguineecom-my.sharepoint.com/personal/iteli_bah_wuriguinee_com/Documents/Bureau/master-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_FADC90DF06EF809426F7898AE9479A637056C3CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E91534A-1528-4C90-877E-7125F76138E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F7A721-59D6-423E-B734-9221C9F9B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>code</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Discordance Age et Photo</t>
   </si>
   <si>
-    <t>Discordance entre l'âge et la photo</t>
-  </si>
-  <si>
     <t>CLR</t>
   </si>
   <si>
@@ -70,18 +67,12 @@
     <t>Adresse invalide</t>
   </si>
   <si>
-    <t>Adresse non trouvée</t>
-  </si>
-  <si>
     <t>DPG</t>
   </si>
   <si>
     <t>Enregistrement en double</t>
   </si>
   <si>
-    <t>Double enregistrement trouvé</t>
-  </si>
-  <si>
     <t>OTH</t>
   </si>
   <si>
@@ -94,18 +85,12 @@
     <t>ADM</t>
   </si>
   <si>
-    <t>Tous les détails sont identiques</t>
-  </si>
-  <si>
     <t>MNA</t>
   </si>
   <si>
     <t>ADD</t>
   </si>
   <si>
-    <t>Tous les détails démographiques sont identiques</t>
-  </si>
-  <si>
     <t>OPM</t>
   </si>
   <si>
@@ -115,21 +100,56 @@
     <t>SDM</t>
   </si>
   <si>
-    <t>Certains détails démographiques sont identiques</t>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>Discordance entre l'Ã¢ge et la photo</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Adresse non trouvÃ©e</t>
+  </si>
+  <si>
+    <t>Double enregistrement trouvÃ©</t>
+  </si>
+  <si>
+    <t>Tous les dÃ©tails sont identiques</t>
+  </si>
+  <si>
+    <t>Tous les dÃ©tails dÃ©mographiques sont identiques</t>
+  </si>
+  <si>
+    <t>Certains dÃ©tails dÃ©mographiques sont identiques</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -155,7 +175,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,7 +194,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -473,215 +493,395 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="41.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45079.578288530094</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45079.578288530094</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45079.578288530094</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45079.578288530094</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45079.578288530094</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45079.578288530094</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45079.578288530094</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45079.578288530094</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="b">
-        <v>1</v>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45079.578288530094</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
